--- a/examples/databases/dtocean-maintenance/tide_floating.xlsx
+++ b/examples/databases/dtocean-maintenance/tide_floating.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="4275" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="28830" windowHeight="4280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="RepairActions" sheetId="4" r:id="rId3"/>
     <sheet name="Inspections" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -347,14 +347,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,9 +395,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -647,16 +650,16 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
-    <col min="4" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" customWidth="1"/>
+    <col min="4" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -697,7 +700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -739,7 +742,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -780,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -944,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1037,7 +1040,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1070,16 +1073,16 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="14" width="14.5703125" customWidth="1"/>
+    <col min="6" max="14" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1244,7 +1247,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1286,7 +1289,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1328,7 +1331,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1412,7 +1415,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1454,7 +1457,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1496,7 +1499,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1538,7 +1541,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1552,7 +1555,7 @@
       <c r="L12" s="10"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1566,10 +1569,10 @@
       <c r="L13" s="10"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="M14" s="4"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="4"/>
     </row>
   </sheetData>
@@ -1586,19 +1589,38 @@
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:S9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="22" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1701,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" s="9">
         <v>6</v>
@@ -1710,10 +1732,10 @@
         <v>15</v>
       </c>
       <c r="O2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="9">
         <v>6</v>
@@ -1722,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="S2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>0</v>
@@ -1734,7 +1756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1769,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" s="9">
         <v>6</v>
@@ -1778,10 +1800,10 @@
         <v>15</v>
       </c>
       <c r="O3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="9">
         <v>6</v>
@@ -1790,7 +1812,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>36</v>
@@ -1803,7 +1825,7 @@
       </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1838,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" s="9">
         <v>6</v>
@@ -1847,10 +1869,10 @@
         <v>15</v>
       </c>
       <c r="O4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="9">
         <v>6</v>
@@ -1859,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="S4" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>0</v>
@@ -1872,7 +1894,7 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1907,7 +1929,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" s="9">
         <v>6</v>
@@ -1916,10 +1938,10 @@
         <v>15</v>
       </c>
       <c r="O5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="9">
         <v>6</v>
@@ -1928,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="S5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>0</v>
@@ -1941,7 +1963,7 @@
       </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1976,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" s="9">
         <v>6</v>
@@ -1985,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="O6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="9">
         <v>6</v>
@@ -1997,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="S6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>0</v>
@@ -2010,7 +2032,7 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -2045,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="L7" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" s="9">
         <v>6</v>
@@ -2054,10 +2076,10 @@
         <v>15</v>
       </c>
       <c r="O7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="9">
         <v>6</v>
@@ -2066,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="S7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>36</v>
@@ -2079,7 +2101,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2114,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M8" s="9">
         <v>6</v>
@@ -2123,10 +2145,10 @@
         <v>15</v>
       </c>
       <c r="O8" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="9">
         <v>6</v>
@@ -2135,7 +2157,7 @@
         <v>15</v>
       </c>
       <c r="S8" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>36</v>
@@ -2148,7 +2170,7 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" s="9">
         <v>6</v>
@@ -2192,10 +2214,10 @@
         <v>15</v>
       </c>
       <c r="O9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="9">
         <v>6</v>
@@ -2204,7 +2226,7 @@
         <v>15</v>
       </c>
       <c r="S9" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>0</v>
@@ -2217,7 +2239,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2240,7 +2262,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2263,7 +2285,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2300,21 +2322,34 @@
   </sheetPr>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:Q3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2373,7 +2408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2402,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K2" s="9">
         <v>6</v>
@@ -2411,10 +2446,10 @@
         <v>15</v>
       </c>
       <c r="M2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O2" s="9">
         <v>6</v>
@@ -2423,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="Q2" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>0</v>
@@ -2432,7 +2467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2461,7 +2496,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" s="9">
         <v>6</v>
@@ -2470,10 +2505,10 @@
         <v>15</v>
       </c>
       <c r="M3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O3" s="9">
         <v>6</v>
@@ -2482,7 +2517,7 @@
         <v>15</v>
       </c>
       <c r="Q3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>0</v>
@@ -2491,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>

--- a/examples/databases/dtocean-maintenance/tide_floating.xlsx
+++ b/examples/databases/dtocean-maintenance/tide_floating.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4506621-D9D4-470C-9D4D-727708439A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="28830" windowHeight="4280" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,23 @@
     <sheet name="RepairActions" sheetId="4" r:id="rId3"/>
     <sheet name="Inspections" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="70">
   <si>
     <t>False</t>
   </si>
@@ -130,9 +142,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>Mooring line</t>
-  </si>
-  <si>
     <t>Foundation</t>
   </si>
   <si>
@@ -218,12 +227,24 @@
   </si>
   <si>
     <t>CAPEX_condition_based_maintenance [Euro]</t>
+  </si>
+  <si>
+    <t>Mooring lines</t>
+  </si>
+  <si>
+    <t>Moorings lines</t>
+  </si>
+  <si>
+    <t>Umbilical</t>
+  </si>
+  <si>
+    <t>Elec sub-system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,6 +451,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -465,6 +503,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,26 +695,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
-    <col min="4" max="13" width="20.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -667,40 +722,40 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -708,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>
@@ -721,19 +776,19 @@
         <v>2</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I2" s="9">
         <v>5</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L2" s="9">
         <v>50</v>
@@ -742,7 +797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -750,7 +805,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>32</v>
@@ -762,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L3" s="9">
         <v>50</v>
@@ -783,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -791,7 +846,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>35</v>
@@ -803,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I4" s="9">
         <v>5</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L4" s="9">
         <v>50</v>
@@ -824,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -832,7 +887,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>33</v>
@@ -844,19 +899,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I5" s="9">
         <v>10</v>
       </c>
       <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L5" s="9">
         <v>50</v>
@@ -865,18 +920,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9">
         <v>0.1</v>
@@ -885,19 +940,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I6" s="9">
         <v>10</v>
       </c>
       <c r="J6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L6" s="9">
         <v>50</v>
@@ -906,18 +961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E7" s="5">
         <v>0.15</v>
@@ -926,19 +981,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="5">
         <v>10</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L7" s="5">
         <v>50</v>
@@ -947,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -955,10 +1010,10 @@
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5">
         <v>0.15</v>
@@ -967,19 +1022,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I8" s="5">
         <v>10</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L8" s="5">
         <v>50</v>
@@ -988,18 +1043,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9">
         <v>0.1</v>
@@ -1008,24 +1063,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1040,7 +1095,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1063,26 +1118,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="14" width="14.54296875" customWidth="1"/>
+    <col min="6" max="14" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1096,10 +1151,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
@@ -1120,10 +1175,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1131,7 +1186,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9">
         <v>20</v>
@@ -1164,7 +1219,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1172,7 +1227,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9">
         <v>80</v>
@@ -1184,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="9">
         <v>0</v>
@@ -1205,7 +1260,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1213,7 +1268,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9">
         <v>50</v>
@@ -1247,7 +1302,7 @@
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1255,7 +1310,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9">
         <v>50</v>
@@ -1267,10 +1322,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
@@ -1289,7 +1344,7 @@
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1297,7 +1352,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9">
         <v>100</v>
@@ -1331,7 +1386,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1373,15 +1428,15 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9">
         <v>100</v>
@@ -1415,15 +1470,15 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="5">
         <v>100</v>
@@ -1457,7 +1512,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1465,7 +1520,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5">
         <v>100</v>
@@ -1499,15 +1554,15 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9">
         <v>100</v>
@@ -1541,7 +1596,7 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1555,7 +1610,7 @@
       <c r="L12" s="10"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1569,10 +1624,10 @@
       <c r="L13" s="10"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M14" s="4"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="4"/>
     </row>
   </sheetData>
@@ -1583,44 +1638,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1688,7 +1743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1696,7 +1751,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9">
         <v>4</v>
@@ -1756,7 +1811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1764,7 +1819,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9">
         <v>6</v>
@@ -1825,7 +1880,7 @@
       </c>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1833,7 +1888,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9">
         <v>6</v>
@@ -1894,7 +1949,7 @@
       </c>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1963,15 +2018,15 @@
       </c>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -2032,15 +2087,15 @@
       </c>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9">
         <v>8</v>
@@ -2101,7 +2156,7 @@
       </c>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2109,7 +2164,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -2170,15 +2225,15 @@
       </c>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9">
         <v>16</v>
@@ -2239,7 +2294,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -2262,7 +2317,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2285,7 +2340,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -2316,40 +2371,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>20</v>
@@ -2408,7 +2463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2416,7 +2471,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9">
         <v>4</v>
@@ -2467,7 +2522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -2475,7 +2530,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -2526,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
